--- a/Analisis_Proyecto-1/Requisitos.xlsx
+++ b/Analisis_Proyecto-1/Requisitos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD9E6FCB-4E58-46E3-87B9-37F085C9F487}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C277815-2B9A-43F6-A13D-DB4FFBC179A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{6DBE996B-4F2E-40E6-A074-F3F096B15151}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Versiones" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Requisitos!$B$4:$G$33</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Requisitos!$B$4:$G$35</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="79">
   <si>
     <t>ID</t>
   </si>
@@ -274,6 +274,24 @@
   </si>
   <si>
     <t>REQPW21</t>
+  </si>
+  <si>
+    <t>El juego debe implementarse en la página web</t>
+  </si>
+  <si>
+    <t>REQPW22</t>
+  </si>
+  <si>
+    <t>Los usuarios pueden modificar algunos datos de su perfil</t>
+  </si>
+  <si>
+    <t>REQSYS07</t>
+  </si>
+  <si>
+    <t>El usuario puede guardar y cargar la partida</t>
+  </si>
+  <si>
+    <t>REQPW23</t>
   </si>
 </sst>
 </file>
@@ -319,7 +337,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -342,11 +360,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -374,10 +403,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -694,10 +730,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{627ACE23-A286-4AEF-AA68-48EEA74388CF}">
-  <dimension ref="A2:G33"/>
+  <dimension ref="A2:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -738,14 +774,14 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
@@ -774,10 +810,18 @@
       <c r="C7" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="5"/>
+      <c r="D7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
@@ -813,7 +857,7 @@
         <v>7</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>12</v>
@@ -846,10 +890,18 @@
       <c r="C11" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="5"/>
+      <c r="D11" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
@@ -858,10 +910,18 @@
       <c r="C12" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="5"/>
+      <c r="D12" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B13" s="9" t="s">
@@ -870,10 +930,18 @@
       <c r="C13" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="5"/>
+      <c r="D13" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B14" s="9" t="s">
@@ -882,10 +950,18 @@
       <c r="C14" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="5"/>
+      <c r="D14" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15" s="9" t="s">
@@ -894,10 +970,18 @@
       <c r="C15" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="5"/>
+      <c r="D15" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B16" s="9" t="s">
@@ -906,10 +990,10 @@
       <c r="C16" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E16" s="2" t="s">
+      <c r="D16" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="11" t="s">
         <v>7</v>
       </c>
       <c r="F16" s="2" t="s">
@@ -926,10 +1010,10 @@
       <c r="C17" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E17" s="2" t="s">
+      <c r="D17" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="11" t="s">
         <v>7</v>
       </c>
       <c r="F17" s="2" t="s">
@@ -946,10 +1030,10 @@
       <c r="C18" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E18" s="2" t="s">
+      <c r="D18" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="11" t="s">
         <v>7</v>
       </c>
       <c r="F18" s="2" t="s">
@@ -966,10 +1050,10 @@
       <c r="C19" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E19" s="2" t="s">
+      <c r="D19" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="11" t="s">
         <v>7</v>
       </c>
       <c r="F19" s="2" t="s">
@@ -986,10 +1070,10 @@
       <c r="C20" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E20" s="2" t="s">
+      <c r="D20" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="11" t="s">
         <v>7</v>
       </c>
       <c r="F20" s="2" t="s">
@@ -1006,10 +1090,10 @@
       <c r="C21" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D21" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E21" s="2" t="s">
+      <c r="D21" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="11" t="s">
         <v>7</v>
       </c>
       <c r="F21" s="2" t="s">
@@ -1026,10 +1110,10 @@
       <c r="C22" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D22" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E22" s="2" t="s">
+      <c r="D22" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="11" t="s">
         <v>7</v>
       </c>
       <c r="F22" s="2" t="s">
@@ -1040,79 +1124,79 @@
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="11" t="s">
         <v>69</v>
       </c>
       <c r="C23" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B24" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B24" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="C24" s="3" t="s">
+      <c r="D24" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B25" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D24" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B25" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="C25" s="3" t="s">
+      <c r="D25" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B26" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D25" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B26" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F26" s="5" t="s">
+      <c r="D26" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F26" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G26" s="5" t="s">
@@ -1121,68 +1205,68 @@
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B28" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B29" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B28" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B29" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G29" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F30" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F30" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G30" s="5" t="s">
@@ -1191,18 +1275,18 @@
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F31" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F31" s="2" t="s">
         <v>24</v>
       </c>
       <c r="G31" s="5" t="s">
@@ -1211,10 +1295,10 @@
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D32" s="5" t="s">
         <v>6</v>
@@ -1223,7 +1307,7 @@
         <v>7</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="G32" s="5" t="s">
         <v>13</v>
@@ -1231,10 +1315,10 @@
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D33" s="5" t="s">
         <v>6</v>
@@ -1249,9 +1333,69 @@
         <v>13</v>
       </c>
     </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B34" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B35" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B36" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C36" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="D36" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E36" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F36" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G36" s="15" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="B29:G29"/>
     <mergeCell ref="B5:G5"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
